--- a/tiktok_toolkit/initial_settings.xlsx
+++ b/tiktok_toolkit/initial_settings.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mobyk\tiktokスクレピング一式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wduser01\Desktop\tiktokdatebase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB60D66C-4094-41C6-AFBB-9EE44BA95446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846DE1AB-0DF2-4BEB-A98E-B12947C56D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="643" yWindow="3163" windowWidth="19286" windowHeight="12026" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="0" windowWidth="18915" windowHeight="18300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初期設定" sheetId="1" r:id="rId1"/>
     <sheet name="取得楽曲URL設定" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="171">
   <si>
     <t>保存先Path</t>
     <phoneticPr fontId="1"/>
@@ -44,134 +55,546 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>原聲 - &gt;&lt;!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/%E5%8E%9F%E8%81%B2--7423036111224015621</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローカルカンピオーネ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/%E3%82%AA%E3%83%AA%E3%82%B8%E3%83%8A%E3%83%AB%E6%A5%BD%E6%9B%B2-%E3%83%AD%E3%83%BC%E3%82%AB%E3%83%AB%E3%82%AB%E3%83%B3%E3%83%94%E3%82%AA%E3%83%BC%E3%83%8D%F0%9F%97%BE%F0%9F%91%91-7434490273214089985?lang=ja-JP</t>
-    <phoneticPr fontId="1"/>
+    <t>件</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperNova (Hook ver.) </t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSrj81gKn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come again </t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSrj8jkA7/</t>
+  </si>
+  <si>
+    <t>風神</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSrj8dHch/</t>
+  </si>
+  <si>
+    <t>SOMETHING AIN'T RIGHT</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSrj8CA2v/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合法的なトビかた </t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSrj8B3B2/</t>
+  </si>
+  <si>
+    <t>original sound - Ayumu Imazu</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSrjLRHNY/</t>
+  </si>
+  <si>
+    <t>タイガのFantastic baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://vt.tiktok.com/ZSrjL1n8n/</t>
+  </si>
+  <si>
+    <t>Shopping Bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://vt.tiktok.com/ZSrjLdLmP/</t>
+  </si>
+  <si>
+    <t>淫ミュcartoon</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/music/%E6%B7%AB%E3%83%9F%E3%83%A5cartoon-7439356557344721680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unreleased J.Tajor </t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSrjL45V2/</t>
+  </si>
+  <si>
+    <t>original sound - TYSON</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/music/original-sound-7470634385531210518</t>
+  </si>
+  <si>
+    <t>C:\Users\wduser01\Desktop\tiktokdatebase\output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRk96m9/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRk9tVF/</t>
+  </si>
+  <si>
+    <t>キミのことがすし - サビver.</t>
+  </si>
+  <si>
+    <t>キミのことがすし</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRSRuHL/</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오리지널</t>
+      <t>MINE_オリジナル楽曲 - mia</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Segoe UI Emoji"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>🎀</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사운드</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/%EC%98%A4%EB%A6%AC%EC%A7%80%EB%84%90-%EC%82%AC%EC%9A%B4%EB%93%9C-%ED%9A%A8%EB%B9%88-7440351078069472017?lang=ja-JP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人間E判定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/%E4%BA%BA%E9%96%93E%E5%88%A4%E5%AE%9A-7430248191084382224?lang=ja-JP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIKTOK BEST 2024 Vol.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/TIKTOK-BEST-2024-Vol2-7442994720627624705?lang=ja-JP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あんじろう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/%E3%82%AA%E3%83%AA%E3%82%B8%E3%83%8A%E3%83%AB%E6%A5%BD%E6%9B%B2-%E3%81%82%E3%82%93%E3%81%98%E3%82%8D%E3%81%86%F0%9F%8E%A7%F0%9F%AB%A7-7128367809347816194?lang=ja-JP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>original sound - Rzzaahlicious</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/original-sound-Rzzaahlicious%F0%9F%8C%B9-7425437542356486928?lang=ja-JP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRBW9By/</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRB3PRd/</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRSLJBC/</t>
+  </si>
+  <si>
+    <t>オパッキャマラド! - 1サビver.</t>
+  </si>
+  <si>
+    <t>オパッキャマラド! - Aメロver.</t>
+  </si>
+  <si>
+    <t>オパッキャマラド! - Bメロver.</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRBTDWv/</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRSer4b/</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRBTwRj/</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRBodcd/</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRSHaxe/</t>
+  </si>
+  <si>
+    <t>いちについて</t>
+  </si>
+  <si>
+    <t>青春永遠 - TV Size Edit</t>
+  </si>
+  <si>
+    <t>SUKI KIRAI</t>
+  </si>
+  <si>
+    <t>曖昧Blue</t>
+  </si>
+  <si>
+    <t>EKO EKO (Outro ver.)</t>
+  </si>
+  <si>
+    <t>旋律と結晶 (デモ)</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSSRS8UrE/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だけど僕は</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHpYsr5wgk4E-g3sWj/</t>
+  </si>
+  <si>
+    <t>君と夏フェス</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHpYUGYn2YLJ-W8ChI/</t>
+  </si>
+  <si>
+    <t>夢中</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHpYfnLJfXWV-bxHfB/</t>
+  </si>
+  <si>
+    <t>イイじゃん</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHpYAHdSe1w9-MhoNU/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">超最強 </t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHpYDNjMAJpj-pQGPK/</t>
+  </si>
+  <si>
+    <t>おやすみTaxi</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJk4DhYX74-V5nxa/</t>
+  </si>
+  <si>
+    <t>中華料理屋の酢豚が食べたい</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARL6WRS/</t>
+  </si>
+  <si>
+    <t>Yummy</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARNhV4G/</t>
+  </si>
+  <si>
+    <t>おじさん構文</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHpYs859rsQ2-3VfMT/</t>
+  </si>
+  <si>
+    <t>明日の私に幸あれ</t>
+  </si>
+  <si>
+    <t>ランデヴー</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAjxK8up/</t>
+  </si>
+  <si>
+    <t>melt bitter</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSA6H3XGT/</t>
+  </si>
+  <si>
+    <t>SPOTLIGHT</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJkkK4W9Xr-pc7fS/</t>
+  </si>
+  <si>
+    <t>名前は片想い</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJkA3sXDhL-jptog/</t>
+  </si>
+  <si>
+    <t>モエチャッカファイア</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJk6xhTaYY-5bg9G/</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJkP6BCPAv-HbX4W/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キューにストップできません！</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHpYD5Bq4TDL-r02X2/</t>
+  </si>
+  <si>
+    <t>倍倍FIGHT!</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHpYDmRho9Q1-LO1Qa/</t>
+  </si>
+  <si>
+    <t>とくべチュ、して</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHpYDs3qRboH-hVp2k/</t>
+  </si>
+  <si>
+    <t>真夏の夜の匂いがする</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAR8pmXw/</t>
+  </si>
+  <si>
+    <t>マイハートハードピンチ</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAR8VDMe/</t>
+  </si>
+  <si>
+    <t>織姫とBABY</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAR8TJy7/</t>
+  </si>
+  <si>
+    <t>愛♡スクリーム</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARFLVaA/</t>
+  </si>
+  <si>
+    <t>クエスチョンマーク</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARNHnWw/</t>
+  </si>
+  <si>
+    <t>黄色と茶色</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARNjLDV/</t>
+  </si>
+  <si>
+    <t>duetしてくだψ</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/music/%E3%82%AA%E3%83%AA%E3%82%B8%E3%83%8A%E3%83%AB%E6%A5%BD%E6%9B%B2-%E3%83%93%E3%83%BC%E3%83%8A%F0%9F%8D%8A-7470489622099905281</t>
+  </si>
+  <si>
+    <t>先輩</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSA6CTdNo/</t>
+  </si>
+  <si>
+    <t>恋する惑星「アナタ」</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSA6pFoka/</t>
+  </si>
+  <si>
+    <t>不可思議のカルテ</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAR8topd/</t>
+  </si>
+  <si>
+    <t>by my side</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARLSAvP/</t>
+  </si>
+  <si>
+    <t>怒りマーク</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJkY4sDvrD-LqJsy/</t>
+  </si>
+  <si>
+    <t>かがみ - ますかるのゆあ ver.</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/music/%E3%81%8B%E3%81%8C%E3%81%BF-%E3%81%BE%E3%81%99%E3%81%8B%E3%82%8B%E3%81%AE%E3%82%86%E3%81%82-ver-7456731945926854672</t>
+  </si>
+  <si>
+    <t>バレンタイン決戦 - Sped Up</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJk8TroHKu-eG0gW/</t>
+  </si>
+  <si>
+    <t>オリジナル楽曲 - mia 🎀</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJhKrwDLmd-vG0vg/</t>
+  </si>
+  <si>
+    <t>七ノ歌</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJkn3CuknK-jYK3U/</t>
+  </si>
+  <si>
+    <t>Almond Chocolate (Sped Up)</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSHGJBe4swkn1-xRywF/</t>
+  </si>
+  <si>
+    <t>会いにKiTE!</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARL2vNt/</t>
+  </si>
+  <si>
+    <t>超特急逃走中</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARNnJhD/</t>
+  </si>
+  <si>
+    <t>Kawaii Kaiwai</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARF679q/</t>
+  </si>
+  <si>
+    <t>仮契約のシンデレラ</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAL7nL4h/</t>
+  </si>
+  <si>
+    <t>おつかれSUMMER</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARLGKJU/</t>
+  </si>
+  <si>
+    <t>恋風</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARNtRyn/</t>
+  </si>
+  <si>
+    <t>Buzzer Beats</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARF2Py1/</t>
+  </si>
+  <si>
+    <t>ボーイフレンド</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSA6a1DVA/</t>
+  </si>
+  <si>
+    <t>Knock Knock</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/music/Knock-Knock-7448732421359749121</t>
+  </si>
+  <si>
+    <t>バナナボート (feat. Elle Teresa)</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAjuuw1v/</t>
+  </si>
+  <si>
+    <t>IS THIS LOVE</t>
+  </si>
+  <si>
+    <t>come again</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/music/come-again-7444151371034577680</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAuawhXg/</t>
+  </si>
+  <si>
+    <t>満ちてゆく</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAumMwVK/</t>
+  </si>
+  <si>
+    <t>1000日間</t>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSARN8Rby/</t>
+  </si>
+  <si>
+    <t>HEA7EN</t>
+  </si>
+  <si>
+    <t>恋の8秒ルール</t>
     <rPh sb="0" eb="1">
-      <t>ケン</t>
+      <t>コイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バレンタイン決戦 Sped up</t>
-  </si>
-  <si>
-    <t>おくすり - 1サビVer.</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/%E3%81%8A%E3%81%8F%E3%81%99%E3%82%8A-1%E3%82%B5%E3%83%93Ver-7460395857796990977</t>
-  </si>
-  <si>
-    <t>モエチャッカファイア</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/%E3%83%A2%E3%82%A8%E3%83%81%E3%83%A3%E3%83%83%E3%82%AB%E3%83%95%E3%82%A1%E3%82%A4%E3%82%A2-7387666471444940816</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/Harajuku-7423836216675026961</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Harajuku</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/%E3%83%90%E3%83%AC%E3%83%B3%E3%82%BF%E3%82%A4%E3%83%B3%E6%B1%BA%E6%88%A6-Sped-up-7460085907702434576</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オリジナル楽曲 - ローカルカンピオーネ</t>
-  </si>
-  <si>
-    <t>Harajuku</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/%E3%82%AA%E3%83%AA%E3%82%B8%E3%83%8A%E3%83%AB%E6%A5%BD%E6%9B%B2-%E3%83%AD%E3%83%BC%E3%82%AB%E3%83%AB%E3%82%AB%E3%83%B3%E3%83%94%E3%82%AA%E3%83%BC%E3%83%8D%F0%9F%97%BE%F0%9F%91%91-7462692913563159297</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/music/Harajuku-7423836216675026961</t>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうしよっかな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSH7NGpGmnd9y-qcwjx/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSH7NGw1SGVCb-SgrHk/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAGIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSH7NtPGfuJKh-uJJaN/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウォーアイニー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSH7NtxQxEufN-m72I8/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわいいだけじゃだめですか？</t>
+  </si>
+  <si>
+    <t>Pixel Ribbon(サビver.)</t>
+  </si>
+  <si>
+    <t>僕に彼女が出来たんだ</t>
+  </si>
+  <si>
+    <t>Bling-Bang-Bang-Born</t>
+  </si>
+  <si>
+    <t>100パーセントだいちゅっき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSH7NnDbYvB51-KjSET/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSAL79vex/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/music/Pixel-Ribbon-%E3%82%B5%E3%83%93ver-7463322997284243472</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSA65cA9n/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vt.tiktok.com/ZSA6aYsCh/</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -211,14 +634,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Malgun Gothic"/>
+      <name val="Segoe UI Emoji"/>
       <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -230,7 +652,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -238,15 +660,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -531,19 +974,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="12.92578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -553,7 +999,7 @@
         <v>1500</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -565,19 +1011,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DFF3B9-2B3A-4A1F-8DE5-33FEF62E766D}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="29.0703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="19.5" thickBot="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -585,126 +1031,703 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
+    <row r="2" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
+      <c r="A11" t="s">
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
         <v>30</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A71" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A72" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A73" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A78" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A79" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A81" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A84" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19.5" thickBot="1">
+      <c r="A85" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{8F32B7D2-DEFD-499A-8B2B-9443293CCD88}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{9FACF3A6-8FF1-4811-843B-D05A4B32FFDF}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{38D8EEBF-3C65-4BCA-B398-B2125016E2B6}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{B42E3E1C-F515-4A6B-A841-BFCE42DF13B1}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{D599156F-4A27-4A16-A049-A852F8506E5E}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{921C02DA-AE41-4529-810A-AC19B3B575C7}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{E2CA13B3-5AAC-4A5C-98BC-F4840829B39B}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{E5D61D68-E402-4B9E-91A2-EEACB05627B1}"/>
-    <hyperlink ref="B2" r:id="rId9" xr:uid="{A930D2CE-B455-48C6-A5E7-6C33DF33A006}"/>
-    <hyperlink ref="B3" r:id="rId10" xr:uid="{028DC6B2-29B5-48C5-99B1-634B94AE190E}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{3554560C-A2F4-48C6-B3F1-62653DB69C35}"/>
+    <hyperlink ref="B54" r:id="rId1" xr:uid="{0B799E45-45AB-4EA6-976D-620546C14A4F}"/>
+    <hyperlink ref="B52" r:id="rId2" xr:uid="{6A97DD2B-ECE6-484C-A0FA-15EEBC72F832}"/>
+    <hyperlink ref="B44" r:id="rId3" xr:uid="{8D4E32A6-1934-402D-9A06-E43226502D33}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{6D0F8FEF-AE5B-4FF7-9197-10054163D45D}"/>
+    <hyperlink ref="B84" r:id="rId5" xr:uid="{92F8037A-C054-40E7-B5FE-CA06AF019E8E}"/>
+    <hyperlink ref="B83" r:id="rId6" xr:uid="{7A56C09B-E1A8-460D-AC57-1D0298876174}"/>
+    <hyperlink ref="B82" r:id="rId7" xr:uid="{CED1E768-8861-4986-A513-C00787752534}"/>
+    <hyperlink ref="B81" r:id="rId8" xr:uid="{635592B1-CAE4-4547-9BF2-6F7B3B9157F9}"/>
+    <hyperlink ref="B80" r:id="rId9" xr:uid="{7B4A94D6-4EC9-47E6-B7B2-A0DCB4A7C3BF}"/>
+    <hyperlink ref="B79" r:id="rId10" xr:uid="{0BDCCA28-833E-4A7C-95AF-A674FEA32F97}"/>
+    <hyperlink ref="B78" r:id="rId11" xr:uid="{DFDE5327-15F5-4A42-BAF9-CE58B7A68627}"/>
+    <hyperlink ref="B77" r:id="rId12" xr:uid="{527042D2-976E-4CA7-919A-FAD216E7D043}"/>
+    <hyperlink ref="B76" r:id="rId13" xr:uid="{D822082F-77BE-4138-AC8E-092875A6DAB0}"/>
+    <hyperlink ref="B75" r:id="rId14" xr:uid="{5118942D-1066-4259-9136-4FCBF38E9A77}"/>
+    <hyperlink ref="B74" r:id="rId15" xr:uid="{41AD955E-47BD-4D1B-8CB6-E41224715196}"/>
+    <hyperlink ref="B73" r:id="rId16" xr:uid="{2A74F9E5-CDFA-4B1F-B44C-0ADEFD193997}"/>
+    <hyperlink ref="B72" r:id="rId17" xr:uid="{E5BEE0AE-0CFF-4E5C-916C-FA8D27818592}"/>
+    <hyperlink ref="B71" r:id="rId18" xr:uid="{F49E4C5C-4818-462D-8EA2-5B2535E9360D}"/>
+    <hyperlink ref="B3" r:id="rId19" xr:uid="{2DB60498-0C7D-456F-B1A9-E6CA84B71A96}"/>
+    <hyperlink ref="B4" r:id="rId20" xr:uid="{334DF65F-1335-4626-AD8C-5139025B0091}"/>
+    <hyperlink ref="B5" r:id="rId21" xr:uid="{1A0D8FA2-7E00-4E02-868A-E510241649DF}"/>
+    <hyperlink ref="B6" r:id="rId22" xr:uid="{02119B28-43A0-4609-924E-4F0127A34D5D}"/>
+    <hyperlink ref="B7" r:id="rId23" xr:uid="{F2EA2118-2087-4474-A60D-0670A1AD3B5E}"/>
+    <hyperlink ref="B8" r:id="rId24" xr:uid="{50E6D069-DC13-495E-9125-D9B1675C7A2D}"/>
+    <hyperlink ref="B9" r:id="rId25" xr:uid="{53695403-BF1E-4C5A-8AB1-E29EC23985D3}"/>
+    <hyperlink ref="B10" r:id="rId26" xr:uid="{A43452BD-8B92-4034-BA98-8782278CF3F9}"/>
+    <hyperlink ref="B11" r:id="rId27" xr:uid="{90958414-0E63-46F7-AA57-D323F543A84E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
 </worksheet>
 </file>